--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_363__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_363__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,28 +5987,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>93.08420562744141</c:v>
+                  <c:v>93.08423614501953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.638933420181274</c:v>
+                  <c:v>3.638929605484009</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>87.77349853515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-12.5436544418335</c:v>
+                  <c:v>-12.54365253448486</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>94.05545806884766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.42337799072266</c:v>
+                  <c:v>84.42340087890625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.81089782714844</c:v>
+                  <c:v>96.8109130859375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.12943363189697</c:v>
+                  <c:v>11.12943458557129</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>31.59260940551758</c:v>
@@ -6017,31 +6017,31 @@
                   <c:v>91.8701171875</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>91.86686706542969</c:v>
+                  <c:v>91.86687469482422</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>22.93609046936035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>91.50337982177734</c:v>
+                  <c:v>91.50338745117188</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.77714538574219</c:v>
+                  <c:v>93.77716827392578</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.395398378372192</c:v>
+                  <c:v>1.395400166511536</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.903702259063721</c:v>
+                  <c:v>6.903700828552246</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90.32439422607422</c:v>
+                  <c:v>90.32437896728516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.875548362731934</c:v>
+                  <c:v>-5.875551700592041</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33.50498199462891</c:v>
+                  <c:v>33.50498962402344</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>25.27438163757324</c:v>
@@ -6056,58 +6056,58 @@
                   <c:v>93.55551147460938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.106870889663696</c:v>
+                  <c:v>3.106870651245117</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21.18119239807129</c:v>
+                  <c:v>21.18119430541992</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58.22289276123047</c:v>
+                  <c:v>58.22290420532227</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>49.47651290893555</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.377320289611816</c:v>
+                  <c:v>1.377319812774658</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>97.52391815185547</c:v>
+                  <c:v>97.52394104003906</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.43843078613281</c:v>
+                  <c:v>97.43844604492188</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52.26041793823242</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.188562393188477</c:v>
+                  <c:v>6.188562870025635</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.393772125244141</c:v>
+                  <c:v>2.393772840499878</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-1.368049025535583</c:v>
+                  <c:v>-1.368046164512634</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>83.02792358398438</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>10.70237064361572</c:v>
+                  <c:v>10.7023754119873</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>79.89161682128906</c:v>
+                  <c:v>79.89163208007812</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.607162475585938</c:v>
+                  <c:v>3.607163906097412</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>98.59189605712891</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>12.44825744628906</c:v>
+                  <c:v>12.44826030731201</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>73.54622650146484</c:v>
+                  <c:v>73.54624176025391</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>95.25119018554688</c:v>
@@ -6122,7 +6122,7 @@
                   <c:v>66.28765869140625</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>93.91561126708984</c:v>
+                  <c:v>93.91559600830078</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96.20646667480469</c:v>
@@ -6140,22 +6140,22 @@
                   <c:v>37.35255432128906</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.957329750061035</c:v>
+                  <c:v>-3.957326889038086</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31.63481903076172</c:v>
+                  <c:v>31.63481330871582</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.9047590494155884</c:v>
+                  <c:v>0.904759407043457</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>93.48459625244141</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>79.08103179931641</c:v>
+                  <c:v>79.08102416992188</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20.81023216247559</c:v>
+                  <c:v>20.81023597717285</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>57.11211013793945</c:v>
@@ -6164,19 +6164,19 @@
                   <c:v>99.35062408447266</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.065209984779358</c:v>
+                  <c:v>1.065208077430725</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>92.07699584960938</c:v>
+                  <c:v>92.07701110839844</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-1.217877626419067</c:v>
+                  <c:v>-1.217877268791199</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>91.31851196289062</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>94.05021667480469</c:v>
+                  <c:v>94.05022430419922</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>56.15105819702148</c:v>
@@ -6185,13 +6185,13 @@
                   <c:v>10.41909790039062</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>97.12725067138672</c:v>
+                  <c:v>97.12724304199219</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>78.11228179931641</c:v>
+                  <c:v>78.11225128173828</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.04045794531702995</c:v>
+                  <c:v>0.04045647755265236</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>35.68954467773438</c:v>
@@ -6200,16 +6200,16 @@
                   <c:v>95.16568756103516</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.74175262451172</c:v>
+                  <c:v>96.74176788330078</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.76747894287109</c:v>
+                  <c:v>95.7674560546875</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>98.31661987304688</c:v>
+                  <c:v>98.31661224365234</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-5.625772476196289</c:v>
+                  <c:v>-5.625776767730713</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>83.01895904541016</c:v>
@@ -6218,73 +6218,73 @@
                   <c:v>93.66248321533203</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>94.55678558349609</c:v>
+                  <c:v>94.55677795410156</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>79.27322387695312</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>24.5007209777832</c:v>
+                  <c:v>24.5007266998291</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>96.34969329833984</c:v>
+                  <c:v>96.34968566894531</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>94.21366119384766</c:v>
+                  <c:v>94.21363830566406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.1027387604117393</c:v>
+                  <c:v>-0.1027383953332901</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>89.95656585693359</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>45.41667175292969</c:v>
+                  <c:v>45.41666030883789</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>95.01976013183594</c:v>
+                  <c:v>95.01973724365234</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>13.53913497924805</c:v>
+                  <c:v>13.53913974761963</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.865668058395386</c:v>
+                  <c:v>1.865667462348938</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90.24142456054688</c:v>
+                  <c:v>90.24137878417969</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>71.19481658935547</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-6.353760242462158</c:v>
+                  <c:v>-6.353758811950684</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>58.3309440612793</c:v>
+                  <c:v>58.3309326171875</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>95.14891052246094</c:v>
+                  <c:v>95.14891815185547</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-1.95603346824646</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>97.71707153320312</c:v>
+                  <c:v>97.71708679199219</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14.66057300567627</c:v>
+                  <c:v>14.660569190979</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>67.77603149414062</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5198886394500732</c:v>
+                  <c:v>0.5198879241943359</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>43.36294555664062</c:v>
+                  <c:v>43.36293411254883</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>102.2920379638672</c:v>
+                  <c:v>102.2920227050781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>93.08420562744141</v>
+        <v>93.08423614501953</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.638933420181274</v>
+        <v>3.638929605484009</v>
       </c>
       <c r="G3">
         <v>136</v>
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-12.5436544418335</v>
+        <v>-12.54365253448486</v>
       </c>
       <c r="G5">
         <v>136</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>84.42337799072266</v>
+        <v>84.42340087890625</v>
       </c>
       <c r="G7">
         <v>136</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>96.81089782714844</v>
+        <v>96.8109130859375</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>11.12943363189697</v>
+        <v>11.12943458557129</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>91.86686706542969</v>
+        <v>91.86687469482422</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>91.50337982177734</v>
+        <v>91.50338745117188</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>93.9735</v>
       </c>
       <c r="F15">
-        <v>93.77714538574219</v>
+        <v>93.77716827392578</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.395398378372192</v>
+        <v>1.395400166511536</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>6.903702259063721</v>
+        <v>6.903700828552246</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>90.32439422607422</v>
+        <v>90.32437896728516</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-5.875548362731934</v>
+        <v>-5.875551700592041</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>33.50498199462891</v>
+        <v>33.50498962402344</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.106870889663696</v>
+        <v>3.106870651245117</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>21.18119239807129</v>
+        <v>21.18119430541992</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>58.22289276123047</v>
+        <v>58.22290420532227</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.377320289611816</v>
+        <v>1.377319812774658</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>90.9726</v>
       </c>
       <c r="F30">
-        <v>97.52391815185547</v>
+        <v>97.52394104003906</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>97.43843078613281</v>
+        <v>97.43844604492188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>6.188562393188477</v>
+        <v>6.188562870025635</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.393772125244141</v>
+        <v>2.393772840499878</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>-1.368049025535583</v>
+        <v>-1.368046164512634</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>10.70237064361572</v>
+        <v>10.7023754119873</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>86.19970000000001</v>
       </c>
       <c r="F38">
-        <v>79.89161682128906</v>
+        <v>79.89163208007812</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.607162475585938</v>
+        <v>3.607163906097412</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>36.7921</v>
       </c>
       <c r="F41">
-        <v>12.44825744628906</v>
+        <v>12.44826030731201</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>41.033</v>
       </c>
       <c r="F42">
-        <v>73.54622650146484</v>
+        <v>73.54624176025391</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>93.91561126708984</v>
+        <v>93.91559600830078</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>-3.957329750061035</v>
+        <v>-3.957326889038086</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>31.63481903076172</v>
+        <v>31.63481330871582</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.9047590494155884</v>
+        <v>0.904759407043457</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>79.08103179931641</v>
+        <v>79.08102416992188</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>20.81023216247559</v>
+        <v>20.81023597717285</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.065209984779358</v>
+        <v>1.065208077430725</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>92.07699584960938</v>
+        <v>92.07701110839844</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>-1.217877626419067</v>
+        <v>-1.217877268791199</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>91.5611</v>
       </c>
       <c r="F65">
-        <v>94.05021667480469</v>
+        <v>94.05022430419922</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>94.0749</v>
       </c>
       <c r="F68">
-        <v>97.12725067138672</v>
+        <v>97.12724304199219</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>78.11228179931641</v>
+        <v>78.11225128173828</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.04045794531702995</v>
+        <v>0.04045647755265236</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>96.74175262451172</v>
+        <v>96.74176788330078</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>95.76747894287109</v>
+        <v>95.7674560546875</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>98.31661987304688</v>
+        <v>98.31661224365234</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>-5.625772476196289</v>
+        <v>-5.625776767730713</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>93.7921</v>
       </c>
       <c r="F79">
-        <v>94.55678558349609</v>
+        <v>94.55677795410156</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>24.5007209777832</v>
+        <v>24.5007266998291</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>97.32899999999999</v>
       </c>
       <c r="F82">
-        <v>96.34969329833984</v>
+        <v>96.34968566894531</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>97.5809</v>
       </c>
       <c r="F83">
-        <v>94.21366119384766</v>
+        <v>94.21363830566406</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.1027387604117393</v>
+        <v>-0.1027383953332901</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>45.41667175292969</v>
+        <v>45.41666030883789</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>94.4075</v>
       </c>
       <c r="F87">
-        <v>95.01976013183594</v>
+        <v>95.01973724365234</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>13.53913497924805</v>
+        <v>13.53913974761963</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.865668058395386</v>
+        <v>1.865667462348938</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>90.24142456054688</v>
+        <v>90.24137878417969</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-6.353760242462158</v>
+        <v>-6.353758811950684</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>54.1262</v>
       </c>
       <c r="F93">
-        <v>58.3309440612793</v>
+        <v>58.3309326171875</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>95.8237</v>
       </c>
       <c r="F94">
-        <v>95.14891052246094</v>
+        <v>95.14891815185547</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>92.05110000000001</v>
       </c>
       <c r="F96">
-        <v>97.71707153320312</v>
+        <v>97.71708679199219</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>14.66057300567627</v>
+        <v>14.660569190979</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>0.5198886394500732</v>
+        <v>0.5198879241943359</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>50.6355</v>
       </c>
       <c r="F100">
-        <v>43.36294555664062</v>
+        <v>43.36293411254883</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>98.1628</v>
       </c>
       <c r="F101">
-        <v>102.2920379638672</v>
+        <v>102.2920227050781</v>
       </c>
     </row>
     <row r="102" spans="1:6">
